--- a/TimeKeeping/AGL MANILA_09011523.xlsx
+++ b/TimeKeeping/AGL MANILA_09011523.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.100.6\hr\HR DEPARTMENT\COMPENSATION AND BENEFITS\TIMEKEEPING\HIA\TIMEKEEPING 2023\17SEPT 1-15,2023\1ST BATCH\PGAI\AGL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\BackUp\PBMS2\TimeKeeping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67B9287-4345-4D50-9E29-C3088891C242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4894673B-09FA-41AE-820D-08B95F3EE1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BA9B2DBF-670C-4B73-9D8D-18C7A8124F86}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{BA9B2DBF-670C-4B73-9D8D-18C7A8124F86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,15 +436,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8116FD31-B0B1-4A54-94B7-220BEAC8DB47}">
-  <dimension ref="A1:L211"/>
+  <dimension ref="A1:K211"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,29 +460,29 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>230</v>
       </c>
@@ -511,7 +514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>232</v>
       </c>
@@ -543,7 +546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>233</v>
       </c>
@@ -575,7 +578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>234</v>
       </c>
@@ -607,7 +610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>235</v>
       </c>
@@ -639,7 +642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>237</v>
       </c>
@@ -671,7 +674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>240</v>
       </c>
@@ -703,7 +706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>241</v>
       </c>
@@ -735,7 +738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>244</v>
       </c>
@@ -767,7 +770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>246</v>
       </c>
@@ -799,7 +802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>247</v>
       </c>
@@ -831,7 +834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -863,7 +866,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -895,7 +898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -927,7 +930,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -7208,7 +7211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389FFE7A-C572-4418-A4CE-5B25BA741260}">
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
